--- a/操作说明/工作说明.xlsx
+++ b/操作说明/工作说明.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="8802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="起始安装" sheetId="2" r:id="rId1"/>
     <sheet name="起始设置" sheetId="4" r:id="rId2"/>
     <sheet name="需要学习的内容" sheetId="3" r:id="rId3"/>
-    <sheet name="scrapy运用" sheetId="1" r:id="rId4"/>
-    <sheet name="python运用" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>序列</t>
   </si>
@@ -222,6 +220,9 @@
     <t>在rstudio里检查r版本，确认为最新版 (global environment)</t>
   </si>
   <si>
+    <t>在rstudio里检查working dir,确认为inusrance文件夹</t>
+  </si>
+  <si>
     <t>rmd</t>
   </si>
   <si>
@@ -307,123 +308,6 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/nxld/p/6062950.html</t>
-  </si>
-  <si>
-    <t>指令</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>切换中文输入</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">hcp </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF006666"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>936</t>
-    </r>
-  </si>
-  <si>
-    <t>在最开始输入</t>
-  </si>
-  <si>
-    <t>获取公司合同与费率表</t>
-  </si>
-  <si>
-    <t>scrapy crawl XX人寿</t>
-  </si>
-  <si>
-    <t>获取excel表单</t>
-  </si>
-  <si>
-    <t>scrapy crawl XX人寿 -o XX人寿.csv</t>
-  </si>
-  <si>
-    <t>对语言进行记录</t>
-  </si>
-  <si>
-    <t>scrapy shell 模式</t>
-  </si>
-  <si>
-    <t>查看网站</t>
-  </si>
-  <si>
-    <t>scrapy shell 你想要的网站</t>
-  </si>
-  <si>
-    <t>看是否成功抓取</t>
-  </si>
-  <si>
-    <t>view(response)</t>
-  </si>
-  <si>
-    <t>查看所有文本</t>
-  </si>
-  <si>
-    <t>response.text</t>
-  </si>
-  <si>
-    <t>确认是否有抓取到内容</t>
-  </si>
-  <si>
-    <t>找到具体结构位置</t>
-  </si>
-  <si>
-    <t>查看结构</t>
-  </si>
-  <si>
-    <t>找class</t>
-  </si>
-  <si>
-    <t>结构可以在前面加.号</t>
-  </si>
-  <si>
-    <t>找到需要的地方</t>
-  </si>
-  <si>
-    <t>response.css('结构')</t>
-  </si>
-  <si>
-    <t>查看所选地方文本</t>
-  </si>
-  <si>
-    <t>response.css('结构::text')</t>
-  </si>
-  <si>
-    <t>获得结构里的内容</t>
-  </si>
-  <si>
-    <t>.get</t>
-  </si>
-  <si>
-    <t>离开网站</t>
-  </si>
-  <si>
-    <t>exit()</t>
   </si>
 </sst>
 </file>
@@ -433,10 +317,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +346,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,22 +375,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +407,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,23 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,38 +467,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF006666"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -610,6 +482,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,13 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,157 +626,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,6 +673,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,8 +705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,6 +735,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -863,26 +755,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,10 +779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,16 +791,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,112 +812,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,7 +1306,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -1668,9 +1540,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1738,18 +1610,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:4">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1764,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1781,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
@@ -1801,10 +1678,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1815,16 +1692,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:5">
@@ -1832,16 +1709,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
@@ -1849,16 +1726,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1866,16 +1743,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1883,201 +1760,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.05" customWidth="1"/>
-    <col min="2" max="2" width="21.2" customWidth="1"/>
-    <col min="3" max="3" width="28.7" customWidth="1"/>
-    <col min="4" max="4" width="17.55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" ht="14.7" spans="1:4">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="10.9" customWidth="1"/>
-    <col min="2" max="2" width="6.7" customWidth="1"/>
-    <col min="3" max="3" width="6.65" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/操作说明/工作说明.xlsx
+++ b/操作说明/工作说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8802" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="起始安装" sheetId="2" r:id="rId1"/>
@@ -359,6 +359,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +427,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -376,7 +451,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -392,82 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,65 +673,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -759,6 +700,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -773,151 +743,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,7 +1642,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="4"/>
